--- a/NimbleAds/Files/disabled.xlsx
+++ b/NimbleAds/Files/disabled.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>EEC  injctrmoghs</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>MESESEARTWAJAHATVA</t>
+  </si>
+  <si>
+    <t>EEC DoorsStepAsia</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +657,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
